--- a/BoxOfficeReport.xlsx
+++ b/BoxOfficeReport.xlsx
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>359515241</v>
+        <v>365447575</v>
       </c>
       <c r="E2" t="n">
-        <v>359515241</v>
+        <v>365447575</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -512,14 +512,14 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>230884665</v>
+        <v>231271033</v>
       </c>
       <c r="E3" t="n">
-        <v>803869434</v>
+        <v>804255802</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>28.72%</t>
+          <t>28.76%</t>
         </is>
       </c>
     </row>
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>143157447</v>
+        <v>145178901</v>
       </c>
       <c r="E4" t="n">
-        <v>143157447</v>
+        <v>145178901</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -559,23 +559,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sing 2</t>
+          <t>Sonic the Hedgehog 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dec 22</t>
+          <t>Apr 8</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>85859020</v>
+        <v>123429523</v>
       </c>
       <c r="E5" t="n">
-        <v>162342175</v>
+        <v>123429523</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>52.89%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -587,23 +587,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scream</t>
+          <t>Sing 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jan 14</t>
+          <t>Dec 22</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81641405</v>
+        <v>86006085</v>
       </c>
       <c r="E6" t="n">
-        <v>81641405</v>
+        <v>162489240</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>52.93%</t>
         </is>
       </c>
     </row>
